--- a/Pedidos/DataExcel/Despacho.xlsx
+++ b/Pedidos/DataExcel/Despacho.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Idioma</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,38 +441,15 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>266</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
         <v>1</v>
       </c>
     </row>

--- a/Pedidos/DataExcel/Despacho.xlsx
+++ b/Pedidos/DataExcel/Despacho.xlsx
@@ -441,10 +441,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>

--- a/Pedidos/DataExcel/Despacho.xlsx
+++ b/Pedidos/DataExcel/Despacho.xlsx
@@ -441,7 +441,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E2">
         <v>17</v>
